--- a/lab02/dicionario de variaveis dos Microdados do Enade 2017.xlsx
+++ b/lab02/dicionario de variaveis dos Microdados do Enade 2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruna.barbosa\Documents\vis\lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FFE28E07-45CF-4CDA-B72A-85A5CE9B4A10}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5E2CEF63-A63B-4650-9F15-B2F551D515E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="444" windowWidth="25596" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18699,8 +18699,23 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="12" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="13" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="39" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -18712,13 +18727,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="38" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="38" borderId="12" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="38" borderId="13" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -18727,24 +18742,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="12" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="13" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -18770,6 +18767,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -19145,7 +19145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
@@ -19164,14 +19164,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="57" t="s">
         <v>5635</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="69"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -19214,14 +19214,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="66" t="s">
         <v>5620</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -19284,19 +19284,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="375" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79">
+      <c r="A8" s="78">
         <v>5</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="76" t="s">
         <v>5619</v>
       </c>
-      <c r="D8" s="75">
+      <c r="D8" s="74">
         <v>4</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="72" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="51" t="s">
@@ -19304,11 +19304,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="74"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="73"/>
       <c r="F9" s="50" t="s">
         <v>5684</v>
       </c>
@@ -19414,14 +19414,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="66" t="s">
         <v>5621</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="68"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -19564,24 +19564,24 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="63" t="s">
         <v>5623</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="60" t="s">
         <v>5624</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62"/>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -19745,14 +19745,14 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="60" t="s">
         <v>5625</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="63"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
@@ -19915,14 +19915,14 @@
       </c>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="60" t="s">
         <v>5626</v>
       </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="63"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="62"/>
     </row>
     <row r="43" spans="1:6" s="2" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
@@ -20045,24 +20045,24 @@
       </c>
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="70" t="s">
+      <c r="A49" s="66" t="s">
         <v>5627</v>
       </c>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="63"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="62"/>
     </row>
     <row r="50" spans="1:6" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="69" t="s">
         <v>5682</v>
       </c>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="66"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="71"/>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
@@ -20165,14 +20165,14 @@
       </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="61" t="s">
+      <c r="A56" s="60" t="s">
         <v>5628</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="63"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="62"/>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
@@ -20495,24 +20495,24 @@
       </c>
     </row>
     <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="58" t="s">
+      <c r="A73" s="63" t="s">
         <v>5632</v>
       </c>
-      <c r="B73" s="59"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="60"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="65"/>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="61" t="s">
+      <c r="A74" s="60" t="s">
         <v>5629</v>
       </c>
-      <c r="B74" s="62"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="63"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="62"/>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
@@ -20695,14 +20695,14 @@
       </c>
     </row>
     <row r="84" spans="1:6" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="61" t="s">
+      <c r="A84" s="60" t="s">
         <v>5630</v>
       </c>
-      <c r="B84" s="62"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="63"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="62"/>
     </row>
     <row r="85" spans="1:6" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
@@ -21225,14 +21225,14 @@
       </c>
     </row>
     <row r="111" spans="1:6" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="64" t="s">
+      <c r="A111" s="69" t="s">
         <v>5551</v>
       </c>
-      <c r="B111" s="65"/>
-      <c r="C111" s="65"/>
-      <c r="D111" s="65"/>
-      <c r="E111" s="65"/>
-      <c r="F111" s="66"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="70"/>
+      <c r="F111" s="71"/>
     </row>
     <row r="112" spans="1:6" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
@@ -22117,14 +22117,14 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="57" t="s">
+      <c r="A154" s="80" t="s">
         <v>5672</v>
       </c>
-      <c r="B154" s="57"/>
-      <c r="C154" s="57"/>
-      <c r="D154" s="57"/>
-      <c r="E154" s="57"/>
-      <c r="F154" s="57"/>
+      <c r="B154" s="80"/>
+      <c r="C154" s="80"/>
+      <c r="D154" s="80"/>
+      <c r="E154" s="80"/>
+      <c r="F154" s="80"/>
     </row>
     <row r="155" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A155" s="52">
@@ -22420,6 +22420,11 @@
     <row r="175" spans="1:6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A111:F111"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A56:F56"/>
     <mergeCell ref="A23:F23"/>
@@ -22435,11 +22440,6 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A111:F111"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F12" location="MUNICÍPIOS!A1" display="Ir para a Planilha de Municípios" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
